--- a/Code/Results/Cases/Case_0_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9913906421258368</v>
+        <v>1.036655467763728</v>
       </c>
       <c r="D2">
-        <v>1.007176700065296</v>
+        <v>1.046673133737729</v>
       </c>
       <c r="E2">
-        <v>1.007693112425651</v>
+        <v>1.045261432654378</v>
       </c>
       <c r="F2">
-        <v>1.016010606561989</v>
+        <v>1.055523369056991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046323139021983</v>
+        <v>1.027580270003101</v>
       </c>
       <c r="J2">
-        <v>1.01383194265355</v>
+        <v>1.041762600309506</v>
       </c>
       <c r="K2">
-        <v>1.018536949379604</v>
+        <v>1.049437911527877</v>
       </c>
       <c r="L2">
-        <v>1.019046300408265</v>
+        <v>1.048030168799559</v>
       </c>
       <c r="M2">
-        <v>1.027251305006394</v>
+        <v>1.058263592569366</v>
       </c>
       <c r="N2">
-        <v>1.008076005975698</v>
+        <v>1.017778282904476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9966926123114993</v>
+        <v>1.037786919768838</v>
       </c>
       <c r="D3">
-        <v>1.011878423030465</v>
+        <v>1.047729522954484</v>
       </c>
       <c r="E3">
-        <v>1.012158618260357</v>
+        <v>1.046264027056059</v>
       </c>
       <c r="F3">
-        <v>1.020863624714835</v>
+        <v>1.056604181092885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046650000961109</v>
+        <v>1.027548853759852</v>
       </c>
       <c r="J3">
-        <v>1.017273847930925</v>
+        <v>1.04253719100758</v>
       </c>
       <c r="K3">
-        <v>1.022361540167844</v>
+        <v>1.050305355242389</v>
       </c>
       <c r="L3">
-        <v>1.022638255546096</v>
+        <v>1.048843669935504</v>
       </c>
       <c r="M3">
-        <v>1.031236333733369</v>
+        <v>1.059157180990503</v>
       </c>
       <c r="N3">
-        <v>1.009277904559939</v>
+        <v>1.01804263246072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000049022598413</v>
+        <v>1.038519495724199</v>
       </c>
       <c r="D4">
-        <v>1.014860210647913</v>
+        <v>1.048413703989314</v>
       </c>
       <c r="E4">
-        <v>1.014991044774491</v>
+        <v>1.046913360672174</v>
       </c>
       <c r="F4">
-        <v>1.023939346764702</v>
+        <v>1.057303841355236</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046838826413371</v>
+        <v>1.027526162415743</v>
       </c>
       <c r="J4">
-        <v>1.019451474456041</v>
+        <v>1.043038316859318</v>
       </c>
       <c r="K4">
-        <v>1.024782534276514</v>
+        <v>1.050866675801042</v>
       </c>
       <c r="L4">
-        <v>1.024911846266956</v>
+        <v>1.049370036314386</v>
       </c>
       <c r="M4">
-        <v>1.033757181666884</v>
+        <v>1.059735098358176</v>
       </c>
       <c r="N4">
-        <v>1.010037373901363</v>
+        <v>1.018213470400197</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001443003681254</v>
+        <v>1.038827579006231</v>
       </c>
       <c r="D5">
-        <v>1.016099831359801</v>
+        <v>1.048701483436942</v>
       </c>
       <c r="E5">
-        <v>1.016168669363946</v>
+        <v>1.047186480936597</v>
       </c>
       <c r="F5">
-        <v>1.025217519005184</v>
+        <v>1.057598050486358</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046912819268226</v>
+        <v>1.027516056286524</v>
       </c>
       <c r="J5">
-        <v>1.020355533408746</v>
+        <v>1.043248969408348</v>
       </c>
       <c r="K5">
-        <v>1.02578792449912</v>
+        <v>1.051102661057171</v>
       </c>
       <c r="L5">
-        <v>1.025855983947277</v>
+        <v>1.049591314893825</v>
       </c>
       <c r="M5">
-        <v>1.034803610633852</v>
+        <v>1.05997798390107</v>
       </c>
       <c r="N5">
-        <v>1.010352436414976</v>
+        <v>1.018285239298116</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00167607987792</v>
+        <v>1.038879313910832</v>
       </c>
       <c r="D6">
-        <v>1.016307168707862</v>
+        <v>1.048749811645746</v>
       </c>
       <c r="E6">
-        <v>1.016365642819793</v>
+        <v>1.047232347254296</v>
       </c>
       <c r="F6">
-        <v>1.025431274581542</v>
+        <v>1.057647453699457</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046924928040697</v>
+        <v>1.027514326162874</v>
       </c>
       <c r="J6">
-        <v>1.020506671799329</v>
+        <v>1.043284337676859</v>
       </c>
       <c r="K6">
-        <v>1.0259560204376</v>
+        <v>1.051142284370286</v>
       </c>
       <c r="L6">
-        <v>1.02601383637096</v>
+        <v>1.049628468190037</v>
       </c>
       <c r="M6">
-        <v>1.034978542279742</v>
+        <v>1.060018761278852</v>
       </c>
       <c r="N6">
-        <v>1.010405093581595</v>
+        <v>1.01829728659464</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000067715105378</v>
+        <v>1.038523611921828</v>
       </c>
       <c r="D7">
-        <v>1.014876828494623</v>
+        <v>1.048417548724341</v>
       </c>
       <c r="E7">
-        <v>1.01500683115164</v>
+        <v>1.04691700956725</v>
       </c>
       <c r="F7">
-        <v>1.023956483413005</v>
+        <v>1.057307772309942</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046839836235492</v>
+        <v>1.027526029605123</v>
       </c>
       <c r="J7">
-        <v>1.0194635988266</v>
+        <v>1.043041131690744</v>
       </c>
       <c r="K7">
-        <v>1.02479601644371</v>
+        <v>1.050869829023963</v>
       </c>
       <c r="L7">
-        <v>1.024924507204031</v>
+        <v>1.049372993072932</v>
       </c>
       <c r="M7">
-        <v>1.033771215877762</v>
+        <v>1.059738344086021</v>
       </c>
       <c r="N7">
-        <v>1.010041600167296</v>
+        <v>1.018214429581788</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9931983142452716</v>
+        <v>1.037037754164172</v>
       </c>
       <c r="D8">
-        <v>1.008778558882292</v>
+        <v>1.047030015526028</v>
       </c>
       <c r="E8">
-        <v>1.00921439393886</v>
+        <v>1.045600142164634</v>
       </c>
       <c r="F8">
-        <v>1.017664423455079</v>
+        <v>1.055888571596797</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046438323532801</v>
+        <v>1.027570141401791</v>
       </c>
       <c r="J8">
-        <v>1.015005675688825</v>
+        <v>1.042024394611058</v>
       </c>
       <c r="K8">
-        <v>1.019840917640978</v>
+        <v>1.049731062565191</v>
       </c>
       <c r="L8">
-        <v>1.020270980402118</v>
+        <v>1.048305099964431</v>
       </c>
       <c r="M8">
-        <v>1.028610319159009</v>
+        <v>1.058565645547141</v>
       </c>
       <c r="N8">
-        <v>1.008486061722972</v>
+        <v>1.017867665265879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9804888622682579</v>
+        <v>1.034422917017335</v>
       </c>
       <c r="D9">
-        <v>0.9975415763181906</v>
+        <v>1.044589814650825</v>
       </c>
       <c r="E9">
-        <v>0.9985449417124677</v>
+        <v>1.0432841721433</v>
       </c>
       <c r="F9">
-        <v>1.006055101763671</v>
+        <v>1.053390097146159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045555183418695</v>
+        <v>1.027629818279024</v>
       </c>
       <c r="J9">
-        <v>1.006749935153406</v>
+        <v>1.040232120152039</v>
       </c>
       <c r="K9">
-        <v>1.010674666057149</v>
+        <v>1.04772462362976</v>
       </c>
       <c r="L9">
-        <v>1.011661670417528</v>
+        <v>1.046423169684855</v>
       </c>
       <c r="M9">
-        <v>1.019050697167486</v>
+        <v>1.056496970572407</v>
       </c>
       <c r="N9">
-        <v>1.005598200181675</v>
+        <v>1.017254991093643</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9715557953574574</v>
+        <v>1.032681971983697</v>
       </c>
       <c r="D10">
-        <v>0.9896789371677244</v>
+        <v>1.042966260140264</v>
       </c>
       <c r="E10">
-        <v>0.9910827811398956</v>
+        <v>1.041743248155395</v>
       </c>
       <c r="F10">
-        <v>0.9979227441521712</v>
+        <v>1.051726045172877</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044845315981096</v>
+        <v>1.027657522603758</v>
       </c>
       <c r="J10">
-        <v>1.000945241297831</v>
+        <v>1.039036836406548</v>
       </c>
       <c r="K10">
-        <v>1.004237076048386</v>
+        <v>1.046387152344</v>
       </c>
       <c r="L10">
-        <v>1.005614927122779</v>
+        <v>1.045168451503817</v>
       </c>
       <c r="M10">
-        <v>1.01232960565587</v>
+        <v>1.05511638160966</v>
       </c>
       <c r="N10">
-        <v>1.00356355121704</v>
+        <v>1.016845453712775</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9675653316782311</v>
+        <v>1.031928656944937</v>
       </c>
       <c r="D11">
-        <v>0.9861761390509601</v>
+        <v>1.042264014697131</v>
       </c>
       <c r="E11">
-        <v>0.9877593583356348</v>
+        <v>1.041076738865588</v>
       </c>
       <c r="F11">
-        <v>0.9942978758957761</v>
+        <v>1.051005875655702</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044508442142328</v>
+        <v>1.02766666565885</v>
       </c>
       <c r="J11">
-        <v>0.9983525760358155</v>
+        <v>1.038519162779445</v>
       </c>
       <c r="K11">
-        <v>1.001363548248175</v>
+        <v>1.045808050791742</v>
       </c>
       <c r="L11">
-        <v>1.002915867000426</v>
+        <v>1.044625123576352</v>
       </c>
       <c r="M11">
-        <v>1.009328133077992</v>
+        <v>1.054518227046104</v>
       </c>
       <c r="N11">
-        <v>1.002653941205276</v>
+        <v>1.01666786305214</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9660634712375308</v>
+        <v>1.031648920437104</v>
       </c>
       <c r="D12">
-        <v>0.984859343328518</v>
+        <v>1.042003284340976</v>
       </c>
       <c r="E12">
-        <v>0.9865101541064173</v>
+        <v>1.040829276100257</v>
       </c>
       <c r="F12">
-        <v>0.992934927879205</v>
+        <v>1.050738429363825</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044378807409181</v>
+        <v>1.027669634084942</v>
       </c>
       <c r="J12">
-        <v>0.9973769177140239</v>
+        <v>1.038326859476154</v>
       </c>
       <c r="K12">
-        <v>1.000282478978071</v>
+        <v>1.045592951580063</v>
       </c>
       <c r="L12">
-        <v>1.001900443492484</v>
+        <v>1.044423303465887</v>
       </c>
       <c r="M12">
-        <v>1.008198746900952</v>
+        <v>1.054295993454209</v>
       </c>
       <c r="N12">
-        <v>1.002311529750554</v>
+        <v>1.016601859266298</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9663865344802345</v>
+        <v>1.031708921338894</v>
       </c>
       <c r="D13">
-        <v>0.9851425269655769</v>
+        <v>1.042059206688896</v>
       </c>
       <c r="E13">
-        <v>0.9867787943918258</v>
+        <v>1.040882352793044</v>
       </c>
       <c r="F13">
-        <v>0.9932280482748708</v>
+        <v>1.05079579493009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044406819599934</v>
+        <v>1.02766901668744</v>
       </c>
       <c r="J13">
-        <v>0.9975867835025465</v>
+        <v>1.038368109924678</v>
       </c>
       <c r="K13">
-        <v>1.000515005975337</v>
+        <v>1.045639090869401</v>
       </c>
       <c r="L13">
-        <v>1.002118850269521</v>
+        <v>1.044466594741063</v>
       </c>
       <c r="M13">
-        <v>1.00844167412403</v>
+        <v>1.054343665678494</v>
       </c>
       <c r="N13">
-        <v>1.002385187867685</v>
+        <v>1.016616019052479</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9674415952897127</v>
+        <v>1.031905532246117</v>
       </c>
       <c r="D14">
-        <v>0.9860676183225267</v>
+        <v>1.04224246030109</v>
       </c>
       <c r="E14">
-        <v>0.9876564046754919</v>
+        <v>1.041056281302802</v>
       </c>
       <c r="F14">
-        <v>0.9941855568286719</v>
+        <v>1.050983767303041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044497818838275</v>
+        <v>1.027666919749703</v>
       </c>
       <c r="J14">
-        <v>0.998272189830567</v>
+        <v>1.038503267260638</v>
       </c>
       <c r="K14">
-        <v>1.00127447127473</v>
+        <v>1.045790270523889</v>
       </c>
       <c r="L14">
-        <v>1.002832198840305</v>
+        <v>1.044608441142696</v>
       </c>
       <c r="M14">
-        <v>1.009235078460692</v>
+        <v>1.05449985821439</v>
       </c>
       <c r="N14">
-        <v>1.002625731512832</v>
+        <v>1.01666240794768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.968089013837808</v>
+        <v>1.032026681060561</v>
       </c>
       <c r="D15">
-        <v>0.9866354876339292</v>
+        <v>1.042355384121846</v>
       </c>
       <c r="E15">
-        <v>0.9881951491189573</v>
+        <v>1.041163458774499</v>
       </c>
       <c r="F15">
-        <v>0.9947732915929288</v>
+        <v>1.051099590810836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044553287240611</v>
+        <v>1.027665571108958</v>
       </c>
       <c r="J15">
-        <v>0.998692795266678</v>
+        <v>1.038586539998477</v>
       </c>
       <c r="K15">
-        <v>1.001740561022582</v>
+        <v>1.045883417947367</v>
       </c>
       <c r="L15">
-        <v>1.003269987680828</v>
+        <v>1.044695836874376</v>
       </c>
       <c r="M15">
-        <v>1.009721973742411</v>
+        <v>1.054596086662084</v>
       </c>
       <c r="N15">
-        <v>1.002773328860663</v>
+        <v>1.016690984550791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9718179474923745</v>
+        <v>1.032731978033935</v>
       </c>
       <c r="D16">
-        <v>0.9899092580824453</v>
+        <v>1.043012881964613</v>
       </c>
       <c r="E16">
-        <v>0.9913013287995555</v>
+        <v>1.041787497384115</v>
       </c>
       <c r="F16">
-        <v>0.9981610538091175</v>
+        <v>1.051773848394295</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044867045625121</v>
+        <v>1.027656855777784</v>
       </c>
       <c r="J16">
-        <v>1.001115578550084</v>
+        <v>1.039071190422163</v>
       </c>
       <c r="K16">
-        <v>1.004425904442248</v>
+        <v>1.046425586090794</v>
       </c>
       <c r="L16">
-        <v>1.005792291433221</v>
+        <v>1.04520450983388</v>
       </c>
       <c r="M16">
-        <v>1.012526814930179</v>
+        <v>1.055156071800046</v>
       </c>
       <c r="N16">
-        <v>1.003623296066583</v>
+        <v>1.016857234386684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9741234014065293</v>
+        <v>1.033174532404</v>
       </c>
       <c r="D17">
-        <v>0.9919358681413745</v>
+        <v>1.04342551765689</v>
       </c>
       <c r="E17">
-        <v>0.9932244563859672</v>
+        <v>1.042179133442352</v>
       </c>
       <c r="F17">
-        <v>1.000257742754559</v>
+        <v>1.052196893195733</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045055911221348</v>
+        <v>1.027650625688148</v>
       </c>
       <c r="J17">
-        <v>1.002613627751523</v>
+        <v>1.039375169903602</v>
       </c>
       <c r="K17">
-        <v>1.006086783790062</v>
+        <v>1.04676568252369</v>
       </c>
       <c r="L17">
-        <v>1.0073523376233</v>
+        <v>1.045523579858428</v>
       </c>
       <c r="M17">
-        <v>1.014261254315511</v>
+        <v>1.055507242070672</v>
       </c>
       <c r="N17">
-        <v>1.00414863531177</v>
+        <v>1.016961449437162</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9754564140521942</v>
+        <v>1.033432717647193</v>
       </c>
       <c r="D18">
-        <v>0.9931085460245196</v>
+        <v>1.043666274823898</v>
       </c>
       <c r="E18">
-        <v>0.9943373454258684</v>
+        <v>1.042407637682231</v>
       </c>
       <c r="F18">
-        <v>1.001470788183046</v>
+        <v>1.052443684330038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04516323263605</v>
+        <v>1.027646716437437</v>
       </c>
       <c r="J18">
-        <v>1.003479825685095</v>
+        <v>1.039552465587663</v>
       </c>
       <c r="K18">
-        <v>1.007047304766814</v>
+        <v>1.046964058137361</v>
       </c>
       <c r="L18">
-        <v>1.008254544829582</v>
+        <v>1.045709685426314</v>
       </c>
       <c r="M18">
-        <v>1.015264182110474</v>
+        <v>1.055712039916923</v>
       </c>
       <c r="N18">
-        <v>1.004452315581966</v>
+        <v>1.017022211387053</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9759089849518661</v>
+        <v>1.033520760776289</v>
       </c>
       <c r="D19">
-        <v>0.993506830281163</v>
+        <v>1.043748379304303</v>
       </c>
       <c r="E19">
-        <v>0.9947153380905579</v>
+        <v>1.042485563515961</v>
       </c>
       <c r="F19">
-        <v>1.001882751005463</v>
+        <v>1.05252783987179</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045199346751871</v>
+        <v>1.027645336752108</v>
       </c>
       <c r="J19">
-        <v>1.003773910768834</v>
+        <v>1.039612917071282</v>
       </c>
       <c r="K19">
-        <v>1.007373442620376</v>
+        <v>1.047031699623133</v>
       </c>
       <c r="L19">
-        <v>1.008560882488657</v>
+        <v>1.045773142175618</v>
       </c>
       <c r="M19">
-        <v>1.015604695257563</v>
+        <v>1.055781864942698</v>
       </c>
       <c r="N19">
-        <v>1.0045554048906</v>
+        <v>1.017042925410971</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.973877268844109</v>
+        <v>1.033127045262495</v>
       </c>
       <c r="D20">
-        <v>0.9917194119029012</v>
+        <v>1.043381238123701</v>
       </c>
       <c r="E20">
-        <v>0.9930190433366096</v>
+        <v>1.042137107404345</v>
       </c>
       <c r="F20">
-        <v>1.000033820406334</v>
+        <v>1.052151500739825</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045035942065365</v>
+        <v>1.027651322591226</v>
       </c>
       <c r="J20">
-        <v>1.00245369127439</v>
+        <v>1.039342556858597</v>
       </c>
       <c r="K20">
-        <v>1.005909445159814</v>
+        <v>1.046729193072193</v>
       </c>
       <c r="L20">
-        <v>1.007185765283241</v>
+        <v>1.04548934693052</v>
       </c>
       <c r="M20">
-        <v>1.01407607514916</v>
+        <v>1.055469568321143</v>
       </c>
       <c r="N20">
-        <v>1.004092556633538</v>
+        <v>1.016950270726003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9671314583795012</v>
+        <v>1.031847633080437</v>
       </c>
       <c r="D21">
-        <v>0.9857956433541656</v>
+        <v>1.042188493508588</v>
       </c>
       <c r="E21">
-        <v>0.9873983845317333</v>
+        <v>1.041005060696516</v>
       </c>
       <c r="F21">
-        <v>0.9939040583036656</v>
+        <v>1.050928412556227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044471146806636</v>
+        <v>1.02766754904509</v>
       </c>
       <c r="J21">
-        <v>0.9980707094750152</v>
+        <v>1.038463467243495</v>
       </c>
       <c r="K21">
-        <v>1.001051212904595</v>
+        <v>1.045745751748483</v>
       </c>
       <c r="L21">
-        <v>1.002622497022974</v>
+        <v>1.044566671020587</v>
       </c>
       <c r="M21">
-        <v>1.009001847878083</v>
+        <v>1.054453864848444</v>
       </c>
       <c r="N21">
-        <v>1.002555024857618</v>
+        <v>1.016648748642005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9627758658866852</v>
+        <v>1.031043668167373</v>
       </c>
       <c r="D22">
-        <v>0.9819797710743005</v>
+        <v>1.041439232240109</v>
       </c>
       <c r="E22">
-        <v>0.983778701791497</v>
+        <v>1.040293925594645</v>
       </c>
       <c r="F22">
-        <v>0.9899539741671808</v>
+        <v>1.050159736827779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044089933071863</v>
+        <v>1.027675277107067</v>
       </c>
       <c r="J22">
-        <v>0.9952414925956681</v>
+        <v>1.037910654555225</v>
       </c>
       <c r="K22">
-        <v>0.9979168688639123</v>
+        <v>1.045127451458539</v>
       </c>
       <c r="L22">
-        <v>0.9996785034601992</v>
+        <v>1.043986525377113</v>
       </c>
       <c r="M22">
-        <v>1.005727106754652</v>
+        <v>1.053814949000859</v>
       </c>
       <c r="N22">
-        <v>1.00156190316198</v>
+        <v>1.016458945838872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9650961173482613</v>
+        <v>1.031469822550237</v>
       </c>
       <c r="D23">
-        <v>0.9840116331998333</v>
+        <v>1.041836366807601</v>
       </c>
       <c r="E23">
-        <v>0.9857060040731556</v>
+        <v>1.040670852230692</v>
       </c>
       <c r="F23">
-        <v>0.9920574354841263</v>
+        <v>1.050567195168898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044294522320008</v>
+        <v>1.027671414527403</v>
       </c>
       <c r="J23">
-        <v>0.9967485369229581</v>
+        <v>1.038203719966298</v>
       </c>
       <c r="K23">
-        <v>0.9995862878918373</v>
+        <v>1.04545522144809</v>
       </c>
       <c r="L23">
-        <v>1.001246530424048</v>
+        <v>1.044294073682228</v>
       </c>
       <c r="M23">
-        <v>1.007471392887973</v>
+        <v>1.054153678981108</v>
       </c>
       <c r="N23">
-        <v>1.002090967094411</v>
+        <v>1.016559585087667</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.97398852168047</v>
+        <v>1.033148502500524</v>
       </c>
       <c r="D24">
-        <v>0.9918172481688008</v>
+        <v>1.043401245910728</v>
       </c>
       <c r="E24">
-        <v>0.9931118879019415</v>
+        <v>1.042156096946893</v>
       </c>
       <c r="F24">
-        <v>1.000135031855418</v>
+        <v>1.052172011524569</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045044974040621</v>
+        <v>1.027651008541582</v>
       </c>
       <c r="J24">
-        <v>1.002525983082258</v>
+        <v>1.039357293321824</v>
       </c>
       <c r="K24">
-        <v>1.005989602265128</v>
+        <v>1.046745681074872</v>
       </c>
       <c r="L24">
-        <v>1.007261056022803</v>
+        <v>1.045504815324941</v>
       </c>
       <c r="M24">
-        <v>1.014159776597955</v>
+        <v>1.055486591571308</v>
       </c>
       <c r="N24">
-        <v>1.00411790462753</v>
+        <v>1.016955321981379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.983851479835062</v>
+        <v>1.03509851115477</v>
       </c>
       <c r="D25">
-        <v>1.000508849400258</v>
+        <v>1.045220093813266</v>
       </c>
       <c r="E25">
-        <v>1.001361820564548</v>
+        <v>1.043882368573119</v>
       </c>
       <c r="F25">
-        <v>1.009122363820669</v>
+        <v>1.054035732927833</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04580460272451</v>
+        <v>1.027616523810937</v>
       </c>
       <c r="J25">
-        <v>1.008934801381415</v>
+        <v>1.040695542974129</v>
       </c>
       <c r="K25">
-        <v>1.013099271269599</v>
+        <v>1.048243309758713</v>
       </c>
       <c r="L25">
-        <v>1.013939032743347</v>
+        <v>1.046909712044752</v>
       </c>
       <c r="M25">
-        <v>1.02158069834465</v>
+        <v>1.057032034126046</v>
       </c>
       <c r="N25">
-        <v>1.006363231837891</v>
+        <v>1.017413574446469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036655467763728</v>
+        <v>0.9913906421258372</v>
       </c>
       <c r="D2">
-        <v>1.046673133737729</v>
+        <v>1.007176700065296</v>
       </c>
       <c r="E2">
-        <v>1.045261432654378</v>
+        <v>1.007693112425651</v>
       </c>
       <c r="F2">
-        <v>1.055523369056991</v>
+        <v>1.016010606561989</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027580270003101</v>
+        <v>1.046323139021983</v>
       </c>
       <c r="J2">
-        <v>1.041762600309506</v>
+        <v>1.01383194265355</v>
       </c>
       <c r="K2">
-        <v>1.049437911527877</v>
+        <v>1.018536949379605</v>
       </c>
       <c r="L2">
-        <v>1.048030168799559</v>
+        <v>1.019046300408265</v>
       </c>
       <c r="M2">
-        <v>1.058263592569366</v>
+        <v>1.027251305006395</v>
       </c>
       <c r="N2">
-        <v>1.017778282904476</v>
+        <v>1.008076005975698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037786919768838</v>
+        <v>0.9966926123114995</v>
       </c>
       <c r="D3">
-        <v>1.047729522954484</v>
+        <v>1.011878423030465</v>
       </c>
       <c r="E3">
-        <v>1.046264027056059</v>
+        <v>1.012158618260357</v>
       </c>
       <c r="F3">
-        <v>1.056604181092885</v>
+        <v>1.020863624714835</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027548853759852</v>
+        <v>1.046650000961109</v>
       </c>
       <c r="J3">
-        <v>1.04253719100758</v>
+        <v>1.017273847930925</v>
       </c>
       <c r="K3">
-        <v>1.050305355242389</v>
+        <v>1.022361540167844</v>
       </c>
       <c r="L3">
-        <v>1.048843669935504</v>
+        <v>1.022638255546096</v>
       </c>
       <c r="M3">
-        <v>1.059157180990503</v>
+        <v>1.031236333733369</v>
       </c>
       <c r="N3">
-        <v>1.01804263246072</v>
+        <v>1.00927790455994</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038519495724199</v>
+        <v>1.000049022598414</v>
       </c>
       <c r="D4">
-        <v>1.048413703989314</v>
+        <v>1.014860210647914</v>
       </c>
       <c r="E4">
-        <v>1.046913360672174</v>
+        <v>1.014991044774492</v>
       </c>
       <c r="F4">
-        <v>1.057303841355236</v>
+        <v>1.023939346764702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027526162415743</v>
+        <v>1.046838826413371</v>
       </c>
       <c r="J4">
-        <v>1.043038316859318</v>
+        <v>1.019451474456042</v>
       </c>
       <c r="K4">
-        <v>1.050866675801042</v>
+        <v>1.024782534276515</v>
       </c>
       <c r="L4">
-        <v>1.049370036314386</v>
+        <v>1.024911846266956</v>
       </c>
       <c r="M4">
-        <v>1.059735098358176</v>
+        <v>1.033757181666885</v>
       </c>
       <c r="N4">
-        <v>1.018213470400197</v>
+        <v>1.010037373901363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038827579006231</v>
+        <v>1.001443003681254</v>
       </c>
       <c r="D5">
-        <v>1.048701483436942</v>
+        <v>1.016099831359801</v>
       </c>
       <c r="E5">
-        <v>1.047186480936597</v>
+        <v>1.016168669363946</v>
       </c>
       <c r="F5">
-        <v>1.057598050486358</v>
+        <v>1.025217519005184</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027516056286524</v>
+        <v>1.046912819268226</v>
       </c>
       <c r="J5">
-        <v>1.043248969408348</v>
+        <v>1.020355533408746</v>
       </c>
       <c r="K5">
-        <v>1.051102661057171</v>
+        <v>1.025787924499119</v>
       </c>
       <c r="L5">
-        <v>1.049591314893825</v>
+        <v>1.025855983947277</v>
       </c>
       <c r="M5">
-        <v>1.05997798390107</v>
+        <v>1.034803610633851</v>
       </c>
       <c r="N5">
-        <v>1.018285239298116</v>
+        <v>1.010352436414976</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038879313910832</v>
+        <v>1.00167607987792</v>
       </c>
       <c r="D6">
-        <v>1.048749811645746</v>
+        <v>1.016307168707861</v>
       </c>
       <c r="E6">
-        <v>1.047232347254296</v>
+        <v>1.016365642819792</v>
       </c>
       <c r="F6">
-        <v>1.057647453699457</v>
+        <v>1.025431274581541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027514326162874</v>
+        <v>1.046924928040697</v>
       </c>
       <c r="J6">
-        <v>1.043284337676859</v>
+        <v>1.020506671799329</v>
       </c>
       <c r="K6">
-        <v>1.051142284370286</v>
+        <v>1.0259560204376</v>
       </c>
       <c r="L6">
-        <v>1.049628468190037</v>
+        <v>1.026013836370959</v>
       </c>
       <c r="M6">
-        <v>1.060018761278852</v>
+        <v>1.034978542279742</v>
       </c>
       <c r="N6">
-        <v>1.01829728659464</v>
+        <v>1.010405093581595</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038523611921828</v>
+        <v>1.000067715105378</v>
       </c>
       <c r="D7">
-        <v>1.048417548724341</v>
+        <v>1.014876828494623</v>
       </c>
       <c r="E7">
-        <v>1.04691700956725</v>
+        <v>1.01500683115164</v>
       </c>
       <c r="F7">
-        <v>1.057307772309942</v>
+        <v>1.023956483413005</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027526029605123</v>
+        <v>1.046839836235492</v>
       </c>
       <c r="J7">
-        <v>1.043041131690744</v>
+        <v>1.0194635988266</v>
       </c>
       <c r="K7">
-        <v>1.050869829023963</v>
+        <v>1.02479601644371</v>
       </c>
       <c r="L7">
-        <v>1.049372993072932</v>
+        <v>1.024924507204032</v>
       </c>
       <c r="M7">
-        <v>1.059738344086021</v>
+        <v>1.033771215877762</v>
       </c>
       <c r="N7">
-        <v>1.018214429581788</v>
+        <v>1.010041600167296</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037037754164172</v>
+        <v>0.9931983142452719</v>
       </c>
       <c r="D8">
-        <v>1.047030015526028</v>
+        <v>1.008778558882292</v>
       </c>
       <c r="E8">
-        <v>1.045600142164634</v>
+        <v>1.009214393938861</v>
       </c>
       <c r="F8">
-        <v>1.055888571596797</v>
+        <v>1.01766442345508</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027570141401791</v>
+        <v>1.046438323532801</v>
       </c>
       <c r="J8">
-        <v>1.042024394611058</v>
+        <v>1.015005675688825</v>
       </c>
       <c r="K8">
-        <v>1.049731062565191</v>
+        <v>1.019840917640979</v>
       </c>
       <c r="L8">
-        <v>1.048305099964431</v>
+        <v>1.020270980402118</v>
       </c>
       <c r="M8">
-        <v>1.058565645547141</v>
+        <v>1.02861031915901</v>
       </c>
       <c r="N8">
-        <v>1.017867665265879</v>
+        <v>1.008486061722972</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034422917017335</v>
+        <v>0.9804888622682579</v>
       </c>
       <c r="D9">
-        <v>1.044589814650825</v>
+        <v>0.9975415763181905</v>
       </c>
       <c r="E9">
-        <v>1.0432841721433</v>
+        <v>0.9985449417124675</v>
       </c>
       <c r="F9">
-        <v>1.053390097146159</v>
+        <v>1.00605510176367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027629818279024</v>
+        <v>1.045555183418695</v>
       </c>
       <c r="J9">
-        <v>1.040232120152039</v>
+        <v>1.006749935153406</v>
       </c>
       <c r="K9">
-        <v>1.04772462362976</v>
+        <v>1.010674666057149</v>
       </c>
       <c r="L9">
-        <v>1.046423169684855</v>
+        <v>1.011661670417528</v>
       </c>
       <c r="M9">
-        <v>1.056496970572407</v>
+        <v>1.019050697167486</v>
       </c>
       <c r="N9">
-        <v>1.017254991093643</v>
+        <v>1.005598200181675</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032681971983697</v>
+        <v>0.9715557953574567</v>
       </c>
       <c r="D10">
-        <v>1.042966260140264</v>
+        <v>0.9896789371677236</v>
       </c>
       <c r="E10">
-        <v>1.041743248155395</v>
+        <v>0.9910827811398948</v>
       </c>
       <c r="F10">
-        <v>1.051726045172877</v>
+        <v>0.9979227441521702</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027657522603758</v>
+        <v>1.044845315981096</v>
       </c>
       <c r="J10">
-        <v>1.039036836406548</v>
+        <v>1.00094524129783</v>
       </c>
       <c r="K10">
-        <v>1.046387152344</v>
+        <v>1.004237076048385</v>
       </c>
       <c r="L10">
-        <v>1.045168451503817</v>
+        <v>1.005614927122778</v>
       </c>
       <c r="M10">
-        <v>1.05511638160966</v>
+        <v>1.012329605655869</v>
       </c>
       <c r="N10">
-        <v>1.016845453712775</v>
+        <v>1.00356355121704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031928656944937</v>
+        <v>0.9675653316782309</v>
       </c>
       <c r="D11">
-        <v>1.042264014697131</v>
+        <v>0.9861761390509596</v>
       </c>
       <c r="E11">
-        <v>1.041076738865588</v>
+        <v>0.9877593583356341</v>
       </c>
       <c r="F11">
-        <v>1.051005875655702</v>
+        <v>0.9942978758957757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02766666565885</v>
+        <v>1.044508442142328</v>
       </c>
       <c r="J11">
-        <v>1.038519162779445</v>
+        <v>0.9983525760358151</v>
       </c>
       <c r="K11">
-        <v>1.045808050791742</v>
+        <v>1.001363548248174</v>
       </c>
       <c r="L11">
-        <v>1.044625123576352</v>
+        <v>1.002915867000425</v>
       </c>
       <c r="M11">
-        <v>1.054518227046104</v>
+        <v>1.009328133077991</v>
       </c>
       <c r="N11">
-        <v>1.01666786305214</v>
+        <v>1.002653941205276</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031648920437104</v>
+        <v>0.9660634712375302</v>
       </c>
       <c r="D12">
-        <v>1.042003284340976</v>
+        <v>0.9848593433285175</v>
       </c>
       <c r="E12">
-        <v>1.040829276100257</v>
+        <v>0.9865101541064167</v>
       </c>
       <c r="F12">
-        <v>1.050738429363825</v>
+        <v>0.9929349278792046</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027669634084942</v>
+        <v>1.044378807409181</v>
       </c>
       <c r="J12">
-        <v>1.038326859476154</v>
+        <v>0.9973769177140234</v>
       </c>
       <c r="K12">
-        <v>1.045592951580063</v>
+        <v>1.00028247897807</v>
       </c>
       <c r="L12">
-        <v>1.044423303465887</v>
+        <v>1.001900443492483</v>
       </c>
       <c r="M12">
-        <v>1.054295993454209</v>
+        <v>1.008198746900951</v>
       </c>
       <c r="N12">
-        <v>1.016601859266298</v>
+        <v>1.002311529750554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031708921338894</v>
+        <v>0.9663865344802343</v>
       </c>
       <c r="D13">
-        <v>1.042059206688896</v>
+        <v>0.9851425269655767</v>
       </c>
       <c r="E13">
-        <v>1.040882352793044</v>
+        <v>0.9867787943918253</v>
       </c>
       <c r="F13">
-        <v>1.05079579493009</v>
+        <v>0.9932280482748707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02766901668744</v>
+        <v>1.044406819599934</v>
       </c>
       <c r="J13">
-        <v>1.038368109924678</v>
+        <v>0.9975867835025459</v>
       </c>
       <c r="K13">
-        <v>1.045639090869401</v>
+        <v>1.000515005975337</v>
       </c>
       <c r="L13">
-        <v>1.044466594741063</v>
+        <v>1.00211885026952</v>
       </c>
       <c r="M13">
-        <v>1.054343665678494</v>
+        <v>1.00844167412403</v>
       </c>
       <c r="N13">
-        <v>1.016616019052479</v>
+        <v>1.002385187867684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031905532246117</v>
+        <v>0.9674415952897124</v>
       </c>
       <c r="D14">
-        <v>1.04224246030109</v>
+        <v>0.9860676183225262</v>
       </c>
       <c r="E14">
-        <v>1.041056281302802</v>
+        <v>0.9876564046754915</v>
       </c>
       <c r="F14">
-        <v>1.050983767303041</v>
+        <v>0.9941855568286716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027666919749703</v>
+        <v>1.044497818838275</v>
       </c>
       <c r="J14">
-        <v>1.038503267260638</v>
+        <v>0.9982721898305668</v>
       </c>
       <c r="K14">
-        <v>1.045790270523889</v>
+        <v>1.001274471274729</v>
       </c>
       <c r="L14">
-        <v>1.044608441142696</v>
+        <v>1.002832198840305</v>
       </c>
       <c r="M14">
-        <v>1.05449985821439</v>
+        <v>1.009235078460692</v>
       </c>
       <c r="N14">
-        <v>1.01666240794768</v>
+        <v>1.002625731512832</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032026681060561</v>
+        <v>0.9680890138378083</v>
       </c>
       <c r="D15">
-        <v>1.042355384121846</v>
+        <v>0.9866354876339295</v>
       </c>
       <c r="E15">
-        <v>1.041163458774499</v>
+        <v>0.9881951491189578</v>
       </c>
       <c r="F15">
-        <v>1.051099590810836</v>
+        <v>0.9947732915929292</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027665571108958</v>
+        <v>1.044553287240611</v>
       </c>
       <c r="J15">
-        <v>1.038586539998477</v>
+        <v>0.9986927952666782</v>
       </c>
       <c r="K15">
-        <v>1.045883417947367</v>
+        <v>1.001740561022582</v>
       </c>
       <c r="L15">
-        <v>1.044695836874376</v>
+        <v>1.003269987680828</v>
       </c>
       <c r="M15">
-        <v>1.054596086662084</v>
+        <v>1.009721973742411</v>
       </c>
       <c r="N15">
-        <v>1.016690984550791</v>
+        <v>1.002773328860663</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032731978033935</v>
+        <v>0.9718179474923752</v>
       </c>
       <c r="D16">
-        <v>1.043012881964613</v>
+        <v>0.989909258082446</v>
       </c>
       <c r="E16">
-        <v>1.041787497384115</v>
+        <v>0.9913013287995558</v>
       </c>
       <c r="F16">
-        <v>1.051773848394295</v>
+        <v>0.9981610538091181</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027656855777784</v>
+        <v>1.044867045625121</v>
       </c>
       <c r="J16">
-        <v>1.039071190422163</v>
+        <v>1.001115578550085</v>
       </c>
       <c r="K16">
-        <v>1.046425586090794</v>
+        <v>1.004425904442249</v>
       </c>
       <c r="L16">
-        <v>1.04520450983388</v>
+        <v>1.005792291433222</v>
       </c>
       <c r="M16">
-        <v>1.055156071800046</v>
+        <v>1.01252681493018</v>
       </c>
       <c r="N16">
-        <v>1.016857234386684</v>
+        <v>1.003623296066583</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033174532404</v>
+        <v>0.9741234014065299</v>
       </c>
       <c r="D17">
-        <v>1.04342551765689</v>
+        <v>0.9919358681413746</v>
       </c>
       <c r="E17">
-        <v>1.042179133442352</v>
+        <v>0.9932244563859672</v>
       </c>
       <c r="F17">
-        <v>1.052196893195733</v>
+        <v>1.000257742754559</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027650625688148</v>
+        <v>1.045055911221348</v>
       </c>
       <c r="J17">
-        <v>1.039375169903602</v>
+        <v>1.002613627751524</v>
       </c>
       <c r="K17">
-        <v>1.04676568252369</v>
+        <v>1.006086783790062</v>
       </c>
       <c r="L17">
-        <v>1.045523579858428</v>
+        <v>1.007352337623301</v>
       </c>
       <c r="M17">
-        <v>1.055507242070672</v>
+        <v>1.014261254315511</v>
       </c>
       <c r="N17">
-        <v>1.016961449437162</v>
+        <v>1.00414863531177</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033432717647193</v>
+        <v>0.9754564140521939</v>
       </c>
       <c r="D18">
-        <v>1.043666274823898</v>
+        <v>0.993108546024519</v>
       </c>
       <c r="E18">
-        <v>1.042407637682231</v>
+        <v>0.994337345425868</v>
       </c>
       <c r="F18">
-        <v>1.052443684330038</v>
+        <v>1.001470788183046</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027646716437437</v>
+        <v>1.04516323263605</v>
       </c>
       <c r="J18">
-        <v>1.039552465587663</v>
+        <v>1.003479825685095</v>
       </c>
       <c r="K18">
-        <v>1.046964058137361</v>
+        <v>1.007047304766813</v>
       </c>
       <c r="L18">
-        <v>1.045709685426314</v>
+        <v>1.008254544829581</v>
       </c>
       <c r="M18">
-        <v>1.055712039916923</v>
+        <v>1.015264182110474</v>
       </c>
       <c r="N18">
-        <v>1.017022211387053</v>
+        <v>1.004452315581966</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033520760776289</v>
+        <v>0.9759089849518665</v>
       </c>
       <c r="D19">
-        <v>1.043748379304303</v>
+        <v>0.9935068302811635</v>
       </c>
       <c r="E19">
-        <v>1.042485563515961</v>
+        <v>0.9947153380905582</v>
       </c>
       <c r="F19">
-        <v>1.05252783987179</v>
+        <v>1.001882751005464</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027645336752108</v>
+        <v>1.045199346751871</v>
       </c>
       <c r="J19">
-        <v>1.039612917071282</v>
+        <v>1.003773910768835</v>
       </c>
       <c r="K19">
-        <v>1.047031699623133</v>
+        <v>1.007373442620376</v>
       </c>
       <c r="L19">
-        <v>1.045773142175618</v>
+        <v>1.008560882488658</v>
       </c>
       <c r="M19">
-        <v>1.055781864942698</v>
+        <v>1.015604695257563</v>
       </c>
       <c r="N19">
-        <v>1.017042925410971</v>
+        <v>1.0045554048906</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033127045262495</v>
+        <v>0.9738772688441091</v>
       </c>
       <c r="D20">
-        <v>1.043381238123701</v>
+        <v>0.9917194119029014</v>
       </c>
       <c r="E20">
-        <v>1.042137107404345</v>
+        <v>0.9930190433366097</v>
       </c>
       <c r="F20">
-        <v>1.052151500739825</v>
+        <v>1.000033820406334</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027651322591226</v>
+        <v>1.045035942065365</v>
       </c>
       <c r="J20">
-        <v>1.039342556858597</v>
+        <v>1.00245369127439</v>
       </c>
       <c r="K20">
-        <v>1.046729193072193</v>
+        <v>1.005909445159815</v>
       </c>
       <c r="L20">
-        <v>1.04548934693052</v>
+        <v>1.007185765283241</v>
       </c>
       <c r="M20">
-        <v>1.055469568321143</v>
+        <v>1.01407607514916</v>
       </c>
       <c r="N20">
-        <v>1.016950270726003</v>
+        <v>1.004092556633539</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031847633080437</v>
+        <v>0.9671314583795013</v>
       </c>
       <c r="D21">
-        <v>1.042188493508588</v>
+        <v>0.9857956433541658</v>
       </c>
       <c r="E21">
-        <v>1.041005060696516</v>
+        <v>0.9873983845317332</v>
       </c>
       <c r="F21">
-        <v>1.050928412556227</v>
+        <v>0.9939040583036656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02766754904509</v>
+        <v>1.044471146806635</v>
       </c>
       <c r="J21">
-        <v>1.038463467243495</v>
+        <v>0.9980707094750152</v>
       </c>
       <c r="K21">
-        <v>1.045745751748483</v>
+        <v>1.001051212904595</v>
       </c>
       <c r="L21">
-        <v>1.044566671020587</v>
+        <v>1.002622497022974</v>
       </c>
       <c r="M21">
-        <v>1.054453864848444</v>
+        <v>1.009001847878083</v>
       </c>
       <c r="N21">
-        <v>1.016648748642005</v>
+        <v>1.002555024857618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031043668167373</v>
+        <v>0.9627758658866854</v>
       </c>
       <c r="D22">
-        <v>1.041439232240109</v>
+        <v>0.9819797710743008</v>
       </c>
       <c r="E22">
-        <v>1.040293925594645</v>
+        <v>0.9837787017914968</v>
       </c>
       <c r="F22">
-        <v>1.050159736827779</v>
+        <v>0.9899539741671807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027675277107067</v>
+        <v>1.044089933071863</v>
       </c>
       <c r="J22">
-        <v>1.037910654555225</v>
+        <v>0.9952414925956683</v>
       </c>
       <c r="K22">
-        <v>1.045127451458539</v>
+        <v>0.9979168688639126</v>
       </c>
       <c r="L22">
-        <v>1.043986525377113</v>
+        <v>0.999678503460199</v>
       </c>
       <c r="M22">
-        <v>1.053814949000859</v>
+        <v>1.005727106754652</v>
       </c>
       <c r="N22">
-        <v>1.016458945838872</v>
+        <v>1.00156190316198</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031469822550237</v>
+        <v>0.965096117348261</v>
       </c>
       <c r="D23">
-        <v>1.041836366807601</v>
+        <v>0.9840116331998329</v>
       </c>
       <c r="E23">
-        <v>1.040670852230692</v>
+        <v>0.985706004073155</v>
       </c>
       <c r="F23">
-        <v>1.050567195168898</v>
+        <v>0.9920574354841253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027671414527403</v>
+        <v>1.044294522320008</v>
       </c>
       <c r="J23">
-        <v>1.038203719966298</v>
+        <v>0.9967485369229577</v>
       </c>
       <c r="K23">
-        <v>1.04545522144809</v>
+        <v>0.999586287891837</v>
       </c>
       <c r="L23">
-        <v>1.044294073682228</v>
+        <v>1.001246530424047</v>
       </c>
       <c r="M23">
-        <v>1.054153678981108</v>
+        <v>1.007471392887972</v>
       </c>
       <c r="N23">
-        <v>1.016559585087667</v>
+        <v>1.002090967094411</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033148502500524</v>
+        <v>0.9739885216804711</v>
       </c>
       <c r="D24">
-        <v>1.043401245910728</v>
+        <v>0.9918172481688019</v>
       </c>
       <c r="E24">
-        <v>1.042156096946893</v>
+        <v>0.9931118879019424</v>
       </c>
       <c r="F24">
-        <v>1.052172011524569</v>
+        <v>1.000135031855419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027651008541582</v>
+        <v>1.045044974040621</v>
       </c>
       <c r="J24">
-        <v>1.039357293321824</v>
+        <v>1.002525983082259</v>
       </c>
       <c r="K24">
-        <v>1.046745681074872</v>
+        <v>1.005989602265129</v>
       </c>
       <c r="L24">
-        <v>1.045504815324941</v>
+        <v>1.007261056022804</v>
       </c>
       <c r="M24">
-        <v>1.055486591571308</v>
+        <v>1.014159776597956</v>
       </c>
       <c r="N24">
-        <v>1.016955321981379</v>
+        <v>1.00411790462753</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03509851115477</v>
+        <v>0.9838514798350635</v>
       </c>
       <c r="D25">
-        <v>1.045220093813266</v>
+        <v>1.00050884940026</v>
       </c>
       <c r="E25">
-        <v>1.043882368573119</v>
+        <v>1.00136182056455</v>
       </c>
       <c r="F25">
-        <v>1.054035732927833</v>
+        <v>1.009122363820671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027616523810937</v>
+        <v>1.04580460272451</v>
       </c>
       <c r="J25">
-        <v>1.040695542974129</v>
+        <v>1.008934801381416</v>
       </c>
       <c r="K25">
-        <v>1.048243309758713</v>
+        <v>1.013099271269601</v>
       </c>
       <c r="L25">
-        <v>1.046909712044752</v>
+        <v>1.013939032743348</v>
       </c>
       <c r="M25">
-        <v>1.057032034126046</v>
+        <v>1.021580698344651</v>
       </c>
       <c r="N25">
-        <v>1.017413574446469</v>
+        <v>1.006363231837892</v>
       </c>
     </row>
   </sheetData>
